--- a/public/operasionalkantor.xlsx
+++ b/public/operasionalkantor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nextjs-product\erp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F4114B-4768-4A29-A04C-D1794A9750E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226005D-CD53-4566-AA69-9E4FC641BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{87927599-C4DC-44A6-9B64-8D4A64A1D63A}"/>
   </bookViews>
@@ -30,16 +30,16 @@
     <t>tanggal</t>
   </si>
   <si>
-    <t>id_karyawan</t>
-  </si>
-  <si>
-    <t>id_kategorioperasionalkantor</t>
-  </si>
-  <si>
     <t>keterangan</t>
   </si>
   <si>
     <t>biaya</t>
+  </si>
+  <si>
+    <t>karyawan</t>
+  </si>
+  <si>
+    <t>kategori</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,16 +404,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
